--- a/biology/Médecine/Ligament_vocal/Ligament_vocal.xlsx
+++ b/biology/Médecine/Ligament_vocal/Ligament_vocal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ligament vocal (ou ligament thyro-aryténoïdien inférieur) est un ligament intrinsèque pair du larynx formé par l'épaississement du bord supérieur du cône élastique. Il relie l'angle rentrant du cartilage thyroïde au processus vocal du cartilage aryténoïde.
 Il sont inclus dans l'épaisseur des plis vestibulaires.
